--- a/1 Gestion/Basis/Copia de Listado de Impresoras_ ultimo.xlsx
+++ b/1 Gestion/Basis/Copia de Listado de Impresoras_ ultimo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciro\Desktop\PROYECTOSAPTI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciro\Desktop\PROYECTOSAPTI\SAP\1 Gestion\Basis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="117">
   <si>
     <t>Nombre Impresora</t>
   </si>
@@ -95,9 +95,6 @@
     <t>LsDacos6</t>
   </si>
   <si>
-    <t>cpa68aw96</t>
-  </si>
-  <si>
     <t>LSFin1</t>
   </si>
   <si>
@@ -239,9 +236,6 @@
     <t>Observaciones</t>
   </si>
   <si>
-    <t>HP 2055dn</t>
-  </si>
-  <si>
     <t>LSFin4</t>
   </si>
   <si>
@@ -375,6 +369,12 @@
   </si>
   <si>
     <t>Driver SAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP2WIH4L </t>
+  </si>
+  <si>
+    <t>192.168.30.73</t>
   </si>
 </sst>
 </file>
@@ -1162,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1172,7 +1172,7 @@
     <col min="2" max="2" width="20.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33" style="8" customWidth="1"/>
     <col min="8" max="16384" width="11.42578125" style="8"/>
@@ -1180,7 +1180,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B1" s="28" t="s">
         <v>0</v>
@@ -1189,67 +1189,67 @@
         <v>2</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>12</v>
@@ -1261,18 +1261,18 @@
         <v>11</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>14</v>
@@ -1284,58 +1284,58 @@
         <v>11</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B7" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>75</v>
-      </c>
       <c r="G7" s="22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>9</v>
@@ -1347,18 +1347,18 @@
         <v>11</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>16</v>
@@ -1370,41 +1370,41 @@
         <v>11</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>20</v>
@@ -1416,67 +1416,63 @@
         <v>11</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="C12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="7"/>
       <c r="G12" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="22" t="s">
         <v>90</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>3</v>
@@ -1485,430 +1481,430 @@
         <v>1</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>1</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="D17" s="30" t="s">
-        <v>112</v>
-      </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="43"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>33</v>
-      </c>
       <c r="D21" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B22" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="E22" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="D23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B24" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="21" t="s">
-        <v>66</v>
-      </c>
       <c r="D24" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B25" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>38</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>39</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B26" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="D26" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="32" t="s">
-        <v>42</v>
-      </c>
       <c r="E26" s="32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G28" s="40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B29" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>53</v>
-      </c>
       <c r="D29" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B30" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="D30" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="16" t="s">
-        <v>56</v>
-      </c>
       <c r="E30" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="45" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C35" s="47">
         <v>31</v>
@@ -1957,14 +1953,14 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1997,16 +1993,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -2027,13 +2023,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2041,13 +2037,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2055,13 +2051,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -2069,13 +2065,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
